--- a/assets/templates/formulir_tamu_undangan.xlsx
+++ b/assets/templates/formulir_tamu_undangan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Pemrograman\FLUTTER\PROJECT\iv_project_web_app\assets\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Pemrograman\FLUTTER\PROJECT\iv_dashboard_project_web_app\assets\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1426992-38FD-41F3-A6BD-CF555D47C98B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A289966D-833D-442A-BF3F-24BD0FF0D512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4FC39C77-3C30-4CB8-AC31-CB41927DD220}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <r>
       <t xml:space="preserve">WhatsApp | </t>
@@ -58,21 +58,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Souvenir (1-10) | </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cth: 1/2/3/.../9/10</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Nama | </t>
     </r>
     <r>
@@ -86,12 +71,30 @@
       <t>cth: Dilan</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Souvenir | </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cth: Tumbler/Gelas</t>
+    </r>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,13 +113,6 @@
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.34998626667073579"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -142,7 +138,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -150,11 +146,14 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,38 +468,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C755DDE0-B999-4740-B541-6D562F19112E}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28" style="5" customWidth="1"/>
-    <col min="2" max="2" width="31.5703125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="31.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="33.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="28" style="3" customWidth="1"/>
+    <col min="3" max="3" width="31.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="33.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="B2" s="6"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="D2" s="3"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/templates/formulir_tamu_undangan.xlsx
+++ b/assets/templates/formulir_tamu_undangan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Pemrograman\FLUTTER\PROJECT\iv_dashboard_project_web_app\assets\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A289966D-833D-442A-BF3F-24BD0FF0D512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E1FD75-9C51-4FEF-8062-B084B46A09CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4FC39C77-3C30-4CB8-AC31-CB41927DD220}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <r>
       <t xml:space="preserve">WhatsApp | </t>
@@ -85,9 +85,6 @@
       </rPr>
       <t>cth: Tumbler/Gelas</t>
     </r>
-  </si>
-  <si>
-    <t>No.</t>
   </si>
 </sst>
 </file>
@@ -118,15 +115,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -134,26 +137,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -468,62 +479,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C755DDE0-B999-4740-B541-6D562F19112E}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
-    <col min="2" max="2" width="28" style="3" customWidth="1"/>
-    <col min="3" max="3" width="31.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="33.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/assets/templates/formulir_tamu_undangan.xlsx
+++ b/assets/templates/formulir_tamu_undangan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Pemrograman\FLUTTER\PROJECT\iv_dashboard_project_web_app\assets\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E1FD75-9C51-4FEF-8062-B084B46A09CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14917EAF-7A25-47C3-AFB7-F663DED6F30E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4FC39C77-3C30-4CB8-AC31-CB41927DD220}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <r>
-      <t xml:space="preserve">WhatsApp | </t>
+      <t xml:space="preserve">Souvenir | </t>
     </r>
     <r>
       <rPr>
@@ -38,42 +38,99 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>cth: 085640932234</t>
+      <t>cth: Tumbler/Gelas</t>
     </r>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Instansi | </t>
-    </r>
-    <r>
-      <rPr>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Nama |</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1" tint="0.34998626667073579"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>cth: Telkom/Perum X</t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cth: Dilan</t>
     </r>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Nama | </t>
-    </r>
-    <r>
-      <rPr>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>cth: Dilan</t>
+      <t>Instansi/Alamat/Komunitas |</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> cth: Telkom/Perum X/Pecinta Anak</t>
     </r>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Souvenir | </t>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> WhatsApp | </t>
     </r>
     <r>
       <rPr>
@@ -83,7 +140,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>cth: Tumbler/Gelas</t>
+      <t xml:space="preserve">cth: 085640932234 </t>
     </r>
   </si>
 </sst>
@@ -91,7 +148,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,6 +167,22 @@
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -156,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -165,6 +238,13 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,29 +562,29 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="29.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="62.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="33.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>0</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/assets/templates/formulir_tamu_undangan.xlsx
+++ b/assets/templates/formulir_tamu_undangan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Pemrograman\FLUTTER\PROJECT\iv_dashboard_project_web_app\assets\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14917EAF-7A25-47C3-AFB7-F663DED6F30E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77CBC1A1-579C-4153-8944-11CFC9748317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4FC39C77-3C30-4CB8-AC31-CB41927DD220}"/>
   </bookViews>
@@ -25,22 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <r>
-      <t xml:space="preserve">Souvenir | </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cth: Tumbler/Gelas</t>
-    </r>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <r>
       <rPr>
@@ -90,13 +75,24 @@
     <r>
       <rPr>
         <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Instansi/Alamat/Komunitas |</t>
+      <t xml:space="preserve"> WhatsApp | </t>
     </r>
     <r>
       <rPr>
@@ -106,7 +102,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> cth: Telkom/Perum X/Pecinta Anak</t>
+      <t xml:space="preserve">cth: 085640932234 </t>
     </r>
   </si>
   <si>
@@ -130,7 +126,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> WhatsApp | </t>
+      <t xml:space="preserve"> Keluarga/Teman Di |</t>
     </r>
     <r>
       <rPr>
@@ -140,7 +136,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">cth: 085640932234 </t>
+      <t xml:space="preserve"> cth: Telkom/Perum X/Pecinta Anak</t>
     </r>
   </si>
 </sst>
@@ -188,7 +184,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -201,8 +197,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -225,11 +227,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -245,6 +260,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -562,30 +580,28 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="31.42578125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="62.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="56" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="D1" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/templates/formulir_tamu_undangan.xlsx
+++ b/assets/templates/formulir_tamu_undangan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Pemrograman\FLUTTER\PROJECT\iv_dashboard_project_web_app\assets\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77CBC1A1-579C-4153-8944-11CFC9748317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D2065C-5BF7-4B1A-BBC0-3CF7B3366787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4FC39C77-3C30-4CB8-AC31-CB41927DD220}"/>
   </bookViews>
@@ -244,24 +244,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -580,28 +578,28 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="56" style="1" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="56" style="5" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7"/>
+      <c r="D1" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
